--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2383324.436954714</v>
+        <v>-2385938.715571166</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +674,10 @@
         <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.86845664851265</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>115.8619247783174</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.2000830738755</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0186029205788</v>
       </c>
       <c r="V2" t="n">
-        <v>104.245995639278</v>
+        <v>38.47253968231318</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>91.1103483761872</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674308</v>
+        <v>14.08691327674309</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6134022078514</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
         <v>100.3033462869334</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792919</v>
+        <v>94.8394318079292</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.1102960603998</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2190043347733</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>195.0895680731929</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>36.3270796166972</v>
       </c>
       <c r="C5" t="n">
-        <v>108.574821146562</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -953,7 +953,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.8885499332614</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>258.7680900506525</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>255.438417953038</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>108.9812949757276</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.7671037116294</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>22.49366285585925</v>
       </c>
     </row>
     <row r="11">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>61.44013021076559</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428175</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012342</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>71.39698738222822</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>100.7815116657739</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.981557645678</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>168.480551467095</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012173</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053454</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>194.9706438327686</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>103.8784673763403</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012173</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>133.8410052537945</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652405</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1629.777807337106</v>
+        <v>1625.528018062928</v>
       </c>
       <c r="C2" t="n">
-        <v>1629.777807337106</v>
+        <v>1625.528018062928</v>
       </c>
       <c r="D2" t="n">
-        <v>1271.512108730356</v>
+        <v>1625.528018062928</v>
       </c>
       <c r="E2" t="n">
-        <v>885.7238561321121</v>
+        <v>1239.739765464684</v>
       </c>
       <c r="F2" t="n">
-        <v>474.7379513425045</v>
+        <v>828.7538606750768</v>
       </c>
       <c r="G2" t="n">
-        <v>59.36965571178316</v>
+        <v>413.3855650443555</v>
       </c>
       <c r="H2" t="n">
-        <v>59.36965571178316</v>
+        <v>112.7721371749273</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178316</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734998</v>
+        <v>223.6389510734989</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447449</v>
+        <v>520.5745606447445</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185025</v>
+        <v>925.8512030185029</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552357</v>
+        <v>1408.468993552358</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877248</v>
+        <v>1903.509852877249</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384225</v>
+        <v>2357.627637384226</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.70565921571</v>
+        <v>2710.705659215711</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719473</v>
+        <v>2927.679802719472</v>
       </c>
       <c r="R2" t="n">
         <v>2968.482785589158</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338333</v>
+        <v>2851.450538338332</v>
       </c>
       <c r="T2" t="n">
-        <v>2851.450538338333</v>
+        <v>2644.177727152599</v>
       </c>
       <c r="U2" t="n">
-        <v>2851.450538338333</v>
+        <v>2390.623582788378</v>
       </c>
       <c r="V2" t="n">
-        <v>2746.151552844112</v>
+        <v>2351.762431594123</v>
       </c>
       <c r="W2" t="n">
-        <v>2393.382897573998</v>
+        <v>1998.993776324008</v>
       </c>
       <c r="X2" t="n">
-        <v>2019.917139312918</v>
+        <v>1625.528018062928</v>
       </c>
       <c r="Y2" t="n">
-        <v>1629.777807337106</v>
+        <v>1625.528018062928</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3103593400832</v>
+        <v>1341.528820902745</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8573300589562</v>
+        <v>1167.075791621618</v>
       </c>
       <c r="D3" t="n">
-        <v>607.922920397705</v>
+        <v>1018.141381960367</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6854653922495</v>
+        <v>858.9039269549114</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1509074191345</v>
+        <v>712.3693689817964</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6295159672683</v>
+        <v>575.8479775299302</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182667</v>
+        <v>483.8173226044885</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178316</v>
+        <v>469.588117274445</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148952</v>
+        <v>548.607937277557</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168902</v>
+        <v>1001.5680375106</v>
       </c>
       <c r="L3" t="n">
-        <v>684.6145268671327</v>
+        <v>1334.580805460842</v>
       </c>
       <c r="M3" t="n">
-        <v>1332.329405070861</v>
+        <v>1742.547866633523</v>
       </c>
       <c r="N3" t="n">
-        <v>1765.502785324653</v>
+        <v>2175.721246887315</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.552005769183</v>
+        <v>2549.770467331845</v>
       </c>
       <c r="P3" t="n">
-        <v>2420.426415694429</v>
+        <v>2830.644877257091</v>
       </c>
       <c r="Q3" t="n">
-        <v>2558.264324026496</v>
+        <v>2968.482785589158</v>
       </c>
       <c r="R3" t="n">
-        <v>2558.264324026496</v>
+        <v>2968.482785589158</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.886246336681</v>
+        <v>2836.104707899343</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.605221056462</v>
+        <v>2642.823682619124</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.526960290582</v>
+        <v>2414.745421853244</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.374852058839</v>
+        <v>2179.593313621502</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.137495330638</v>
+        <v>1925.3559568933</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.285995125105</v>
+        <v>1717.504456687767</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.525696360151</v>
+        <v>1509.744157922813</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>605.6058476053652</v>
+        <v>1951.296561573103</v>
       </c>
       <c r="C4" t="n">
-        <v>605.6058476053652</v>
+        <v>1782.360378645196</v>
       </c>
       <c r="D4" t="n">
-        <v>455.4892081930294</v>
+        <v>1632.245830960498</v>
       </c>
       <c r="E4" t="n">
-        <v>307.5761146106363</v>
+        <v>1632.245830960498</v>
       </c>
       <c r="F4" t="n">
-        <v>160.686167112726</v>
+        <v>1485.355883462587</v>
       </c>
       <c r="G4" t="n">
-        <v>160.686167112726</v>
+        <v>1485.355883462587</v>
       </c>
       <c r="H4" t="n">
-        <v>160.686167112726</v>
+        <v>1337.958818848987</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178316</v>
+        <v>1236.642307448044</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945989</v>
+        <v>1272.569327125721</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778209</v>
+        <v>1461.445293514082</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386278</v>
+        <v>1758.667937374889</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945956</v>
+        <v>2082.436664730857</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.668860094579</v>
+        <v>2403.941511830841</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944344</v>
+        <v>2684.886979680605</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.491028290281</v>
+        <v>2901.763680026542</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852896</v>
+        <v>2968.482785589158</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986301</v>
+        <v>2872.685379722563</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493184</v>
+        <v>2872.685379722563</v>
       </c>
       <c r="T4" t="n">
-        <v>1501.414138493184</v>
+        <v>2650.351747338321</v>
       </c>
       <c r="U4" t="n">
-        <v>1212.304033104524</v>
+        <v>2650.351747338321</v>
       </c>
       <c r="V4" t="n">
-        <v>1212.304033104524</v>
+        <v>2650.351747338321</v>
       </c>
       <c r="W4" t="n">
-        <v>1015.243863333622</v>
+        <v>2360.93457730136</v>
       </c>
       <c r="X4" t="n">
-        <v>787.2543124356049</v>
+        <v>2132.945026403343</v>
       </c>
       <c r="Y4" t="n">
-        <v>787.2543124356049</v>
+        <v>2132.945026403343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204828</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4601,16 +4601,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204828</v>
+        <v>2012.898941548399</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064547</v>
@@ -4644,22 +4644,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456.9449278938906</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="C7" t="n">
-        <v>456.9449278938906</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1666.869595963939</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1445.102980533465</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1156.000113659108</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V7" t="n">
-        <v>1156.000113659108</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W7" t="n">
-        <v>866.5829436221477</v>
+        <v>930.4393996930023</v>
       </c>
       <c r="X7" t="n">
-        <v>638.5933927241304</v>
+        <v>702.449848794985</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.5933927241304</v>
+        <v>481.6572696514548</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308157</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367745</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760995</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348091</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372279</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1915.408584743413</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1915.408584743413</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1693.641969312938</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1693.641969312938</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1693.641969312938</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W10" t="n">
-        <v>1404.224799275978</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="X10" t="n">
-        <v>1176.23524837796</v>
+        <v>1030.954503036686</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.4426692344304</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5130,16 +5130,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703094</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424025</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138395</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703094</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5294,10 +5294,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.872235754091</v>
+        <v>803.2707707770318</v>
       </c>
       <c r="C16" t="n">
-        <v>853.9360528261841</v>
+        <v>634.3345878491249</v>
       </c>
       <c r="D16" t="n">
-        <v>703.8194134138483</v>
+        <v>484.2179484367891</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.2179484367891</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>337.3280009388787</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038341</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.313279727861</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.520700584331</v>
+        <v>984.9192356072715</v>
       </c>
     </row>
     <row r="17">
@@ -5507,10 +5507,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.192580311172</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.853600740071</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,13 +5674,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138409</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703107</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>571.660776418801</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.724593490894</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.724593490894</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.724593490894</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.724593490894</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199801</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993914</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.19898568143</v>
+        <v>974.1018203925709</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490407</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263204</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>680.4481746984135</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>530.3315352860777</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576781</v>
+        <v>382.4184417036845</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576781</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="G25" t="n">
-        <v>198.744407872558</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,10 +6145,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797742</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1842.268145910715</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1587.583657704829</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1298.166487667868</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>1070.17693676985</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>849.3843576263204</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,22 +6306,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E28" t="n">
         <v>533.5814564942654</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6409,13 +6409,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6555,10 +6555,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531931</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656802</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150007</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942639</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580098</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345459</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384002</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6625,7 +6625,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6640,31 +6640,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838284</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518749</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582388</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400514</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,22 +6877,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,31 +7312,31 @@
         <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942651</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,10 +7348,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
         <v>898.265941231132</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942648</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580107</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345469</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7825,28 +7825,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400515</v>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>242.1695121525736</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>242.1695121525734</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>297.6072935907341</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851262</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>205.2000830738755</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0186029205788</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>223.5062628308569</v>
+        <v>289.2797187878217</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.002070810360919495</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
-        <v>145.9230939674644</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,19 +22753,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>192.0586035981866</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>91.43343026339815</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>87.17534280744677</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>75.03697526434095</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>64.74262662649498</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.26526345294987</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194285</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>30.73901155626854</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
-        <v>36.41624546988351</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>152.3434691354496</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1383128.210843233</v>
+        <v>1383128.210843232</v>
       </c>
     </row>
     <row r="7">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32460.91116143664</v>
+        <v>32460.91116143662</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321417</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450027</v>
       </c>
       <c r="F2" t="n">
+        <v>40357.32998450028</v>
+      </c>
+      <c r="G2" t="n">
         <v>40357.32998450031</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40357.32998450032</v>
       </c>
       <c r="H2" t="n">
         <v>40357.32998450029</v>
       </c>
       <c r="I2" t="n">
-        <v>40357.32998450029</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
         <v>41052.08849321416</v>
@@ -26347,13 +26347,13 @@
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973077</v>
+        <v>95186.4934397309</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>213599.1454818042</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.0103835997</v>
+        <v>22978.01038359969</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26418,13 +26418,13 @@
         <v>16555.52139697204</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
@@ -26439,25 +26439,25 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>19767.83547989932</v>
+        <v>19767.83547989929</v>
       </c>
       <c r="K4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989927</v>
       </c>
       <c r="L4" t="n">
-        <v>19767.83547989931</v>
+        <v>19767.83547989927</v>
       </c>
       <c r="M4" t="n">
         <v>19767.83547989929</v>
       </c>
       <c r="N4" t="n">
+        <v>19767.8354798993</v>
+      </c>
+      <c r="O4" t="n">
+        <v>19767.83547989927</v>
+      </c>
+      <c r="P4" t="n">
         <v>19767.83547989929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19767.83547989931</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19767.83547989928</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100917.4173209746</v>
+        <v>100917.4173209745</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1313632.089427984</v>
+        <v>-1314061.648294572</v>
       </c>
       <c r="C6" t="n">
-        <v>-253032.356496067</v>
+        <v>-253032.3564960671</v>
       </c>
       <c r="D6" t="n">
         <v>-157845.8630563362</v>
       </c>
       <c r="E6" t="n">
-        <v>-397954.6378635678</v>
+        <v>-397989.3757890036</v>
       </c>
       <c r="F6" t="n">
-        <v>-72542.17605621263</v>
+        <v>-72576.91398164835</v>
       </c>
       <c r="G6" t="n">
-        <v>-72542.17605621261</v>
+        <v>-72576.91398164832</v>
       </c>
       <c r="H6" t="n">
-        <v>-72542.17605621264</v>
+        <v>-72576.91398164829</v>
       </c>
       <c r="I6" t="n">
-        <v>-72542.17605621264</v>
+        <v>-72576.91398164834</v>
       </c>
       <c r="J6" t="n">
-        <v>-295479.0083224048</v>
+        <v>-295479.0083224047</v>
       </c>
       <c r="K6" t="n">
         <v>-104857.8732242002</v>
@@ -26555,13 +26555,13 @@
         <v>-166934.8907761123</v>
       </c>
       <c r="N6" t="n">
-        <v>-81879.86284060049</v>
+        <v>-81879.86284060054</v>
       </c>
       <c r="O6" t="n">
         <v>-101307.5808342323</v>
       </c>
       <c r="P6" t="n">
-        <v>-81879.86284060049</v>
+        <v>-81879.86284060052</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972895</v>
+        <v>742.1206963972894</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26960,7 +26960,7 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396961</v>
+        <v>72.85564646396972</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972895</v>
+        <v>742.1206963972894</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500335</v>
+        <v>89.28075900500346</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972895</v>
+        <v>742.1206963972894</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500335</v>
+        <v>89.28075900500346</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972895</v>
+        <v>742.1206963972894</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500335</v>
+        <v>89.28075900500346</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>346.4067620467833</v>
       </c>
       <c r="C5" t="n">
-        <v>256.6980706244455</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>20.88047539818049</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>27.75490828593848</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4919521192238</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>277.256643680326</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.16504895841794</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>196.0909904962355</v>
       </c>
     </row>
     <row r="11">
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720917</v>
+        <v>4.088124840720916</v>
       </c>
       <c r="H2" t="n">
-        <v>41.8675085250331</v>
+        <v>41.86750852503309</v>
       </c>
       <c r="I2" t="n">
         <v>157.6074329218933</v>
@@ -31060,16 +31060,16 @@
         <v>717.8389509382371</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419355</v>
+        <v>729.4543356419354</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570168</v>
+        <v>688.8030442570167</v>
       </c>
       <c r="P2" t="n">
         <v>587.8774622517191</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934012</v>
+        <v>441.4714913934011</v>
       </c>
       <c r="R2" t="n">
         <v>256.8006720259355</v>
@@ -31081,7 +31081,7 @@
         <v>17.89576649025582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576733</v>
+        <v>0.3270499872576732</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863085</v>
+        <v>2.187339625863084</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030927</v>
+        <v>21.12509586030926</v>
       </c>
       <c r="I3" t="n">
-        <v>75.309719574672</v>
+        <v>75.30971957467199</v>
       </c>
       <c r="J3" t="n">
         <v>206.6556266698101</v>
@@ -31136,16 +31136,16 @@
         <v>474.9309130629474</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004841</v>
+        <v>554.221974500484</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265572</v>
+        <v>568.8905810265571</v>
       </c>
       <c r="O3" t="n">
         <v>520.4237398429593</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913464</v>
+        <v>417.6859325913463</v>
       </c>
       <c r="Q3" t="n">
         <v>279.2119845224527</v>
@@ -31209,16 +31209,16 @@
         <v>129.6490989830129</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585708</v>
+        <v>213.0532962585707</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283778</v>
+        <v>272.6348675283777</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795412</v>
+        <v>287.4552415795411</v>
       </c>
       <c r="N4" t="n">
-        <v>280.6201984288361</v>
+        <v>280.620198428836</v>
       </c>
       <c r="O4" t="n">
         <v>259.1981729443083</v>
@@ -31230,13 +31230,13 @@
         <v>153.5550791735286</v>
       </c>
       <c r="R4" t="n">
-        <v>82.4539595692403</v>
+        <v>82.45395956924028</v>
       </c>
       <c r="S4" t="n">
         <v>31.95799443878561</v>
       </c>
       <c r="T4" t="n">
-        <v>7.83529336788171</v>
+        <v>7.835293367881709</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>265.5442652399247</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,25 +33026,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>614.7544723218309</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>271.1474903386692</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.903832042181</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34708,19 +34708,19 @@
         <v>487.4927177109644</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453446</v>
+        <v>500.0412720453444</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353301</v>
+        <v>458.70483283533</v>
       </c>
       <c r="P2" t="n">
         <v>356.6444664964495</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189517</v>
+        <v>219.1658015189516</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180339</v>
+        <v>41.21513421180333</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314342</v>
+        <v>79.8180000031434</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282778</v>
+        <v>457.5354547808514</v>
       </c>
       <c r="L3" t="n">
         <v>336.3765332830732</v>
       </c>
       <c r="M3" t="n">
-        <v>654.2574527310392</v>
+        <v>412.0879405784656</v>
       </c>
       <c r="N3" t="n">
-        <v>437.548868943224</v>
+        <v>437.5488689432239</v>
       </c>
       <c r="O3" t="n">
         <v>377.8274953985149</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634014</v>
+        <v>36.28991886634012</v>
       </c>
       <c r="K4" t="n">
         <v>190.7838044326879</v>
@@ -34863,19 +34863,19 @@
         <v>300.2248927886939</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413818</v>
+        <v>327.0391185413817</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080647</v>
+        <v>324.7523708080646</v>
       </c>
       <c r="O4" t="n">
         <v>283.783300858348</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868047</v>
+        <v>219.0673740868046</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183425</v>
+        <v>67.39303592183423</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>134.2025531565914</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>339.2956687594475</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36674,25 +36674,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>476.2000925419567</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>128.5512458942248</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,10 +37242,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>550.231803639606</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,10 +37953,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
